--- a/02-16-25 to 02-22-25 Madison Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Madison Schedule.xlsx
@@ -3461,7 +3461,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3508,15 +3508,10 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3560,10 +3555,15 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3608,16 +3608,10 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Rx</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3657,10 +3651,16 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Rx</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Madison Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Madison Schedule.xlsx
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2035,10 +2035,15 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -2111,15 +2116,10 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
@@ -2183,10 +2183,15 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2254,15 +2259,10 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2378,10 +2378,15 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
@@ -2445,13 +2450,13 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2519,13 +2524,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2591,7 +2595,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2662,7 +2666,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2722,21 +2726,9 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2801,21 +2793,9 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2865,7 +2845,11 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -2916,7 +2900,11 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -2973,7 +2961,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #62, DIXON MOBIL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3032,7 +3020,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>1300 N GALENA AVE</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3075,7 +3063,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>KELLEY #62, DIXON MOBIL</t>
+          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3122,7 +3110,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1300 N GALENA AVE</t>
+          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3167,11 +3155,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3201,13 +3185,21 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3236,9 +3228,22 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3269,17 +3274,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3324,20 +3329,15 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3381,19 +3381,15 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3432,15 +3428,19 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3477,16 +3477,8 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3524,21 +3516,9 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Madison Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Madison Schedule.xlsx
@@ -2188,7 +2188,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van</t>
         </is>
       </c>
@@ -2378,13 +2378,13 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2450,13 +2450,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2524,7 +2523,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2595,7 +2594,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2659,21 +2658,9 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2794,7 +2781,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2847,7 +2838,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2902,7 +2893,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #62, DIXON MOBIL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2961,7 +2952,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>KELLEY #62, DIXON MOBIL</t>
+          <t>1300 N GALENA AVE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3020,7 +3011,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1300 N GALENA AVE</t>
+          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3063,7 +3054,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
+          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3108,11 +3099,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -3154,9 +3141,21 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3187,17 +3186,18 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3230,18 +3230,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -3274,19 +3273,15 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3329,12 +3324,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3381,15 +3376,19 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3426,21 +3425,9 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Madison Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Madison Schedule.xlsx
@@ -2587,21 +2587,9 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
@@ -2714,7 +2702,11 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2783,7 +2775,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2838,7 +2830,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #62, DIXON MOBIL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2893,7 +2885,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>KELLEY #62, DIXON MOBIL</t>
+          <t>1300 N GALENA AVE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2952,7 +2944,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1300 N GALENA AVE</t>
+          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3011,7 +3003,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
+          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3052,11 +3044,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3098,9 +3086,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -3143,17 +3143,18 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3186,18 +3187,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3230,19 +3230,15 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3273,12 +3269,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3324,15 +3320,19 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3374,21 +3374,9 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Madison Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Madison Schedule.xlsx
@@ -1819,7 +1819,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van</t>
         </is>
       </c>
@@ -1971,13 +1971,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2052,14 +2051,10 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2121,16 +2116,8 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2265,7 +2252,11 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2322,7 +2313,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2391,7 +2382,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2462,7 +2453,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
+          <t>5595 WHEELER RD</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2535,7 +2526,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5595 WHEELER RD</t>
+          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2594,7 +2585,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
+          <t>*EMILY IS THE DM</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2716,7 +2707,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">

--- a/02-16-25 to 02-22-25 Madison Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Madison Schedule.xlsx
@@ -1514,7 +1514,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Silver Van</t>
         </is>
       </c>
@@ -1814,13 +1814,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>Driver, 
+Gray Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1894,14 +1895,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -1971,14 +1970,10 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2044,16 +2039,8 @@
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -2181,7 +2168,11 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
@@ -2254,7 +2245,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2313,7 +2304,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2382,7 +2373,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
+          <t>5595 WHEELER RD</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2453,7 +2444,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5595 WHEELER RD</t>
+          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2526,7 +2517,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
+          <t>*EMILY IS THE DM</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2583,11 +2574,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>*EMILY IS THE DM</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2641,9 +2628,21 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2702,19 +2701,15 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2773,12 +2768,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2828,12 +2823,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2883,12 +2878,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2942,12 +2937,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2999,16 +2994,8 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Madison Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Madison Schedule.xlsx
@@ -2742,12 +2742,13 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 11:15</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Madison Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Madison Schedule.xlsx
@@ -1706,7 +1706,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori</t>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>5:15 at Hwy N, Rx</t>
+          <t>@ Store, Rx</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
